--- a/category/三级分类扩展表.xlsx
+++ b/category/三级分类扩展表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record\category\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C036B8-4AF4-4A00-84E3-BDC893BF4448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C53F15-9D67-4918-89C8-736F6AA11ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2715" yWindow="4035" windowWidth="12150" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="91">
   <si>
     <t>上证50</t>
   </si>
@@ -323,6 +323,34 @@
   </si>
   <si>
     <t>商品</t>
+  </si>
+  <si>
+    <t>000012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中小板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>399005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -392,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -401,7 +429,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -682,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -815,16 +842,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>61</v>
+        <v>89</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -835,13 +862,13 @@
         <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>48</v>
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -852,13 +879,13 @@
         <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>62</v>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -869,13 +896,13 @@
         <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -886,13 +913,13 @@
         <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -903,13 +930,13 @@
         <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -920,13 +947,13 @@
         <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>67</v>
+        <v>11</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -937,13 +964,13 @@
         <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -954,13 +981,13 @@
         <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -971,13 +998,13 @@
         <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -988,13 +1015,13 @@
         <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1005,13 +1032,13 @@
         <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1022,13 +1049,13 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1039,13 +1066,13 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1053,16 +1080,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1073,13 +1100,13 @@
         <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1090,13 +1117,13 @@
         <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1107,13 +1134,13 @@
         <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1121,16 +1148,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>75</v>
+        <v>40</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1141,13 +1168,13 @@
         <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1158,13 +1185,13 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1175,13 +1202,13 @@
         <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>43</v>
+        <v>26</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1189,16 +1216,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>43</v>
+      <c r="D30" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1206,10 +1233,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>43</v>
@@ -1223,16 +1250,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1240,16 +1267,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1257,19 +1284,70 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E34">
         <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/category/三级分类扩展表.xlsx
+++ b/category/三级分类扩展表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record\category\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C53F15-9D67-4918-89C8-736F6AA11ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D1A66C-EDC5-4A73-9183-6207517B4249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -712,7 +712,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1241,8 +1241,8 @@
       <c r="C31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>56</v>
+      <c r="D31" t="s">
+        <v>86</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1258,8 +1258,8 @@
       <c r="C32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>56</v>
+      <c r="D32" t="s">
+        <v>87</v>
       </c>
       <c r="E32">
         <v>31</v>
